--- a/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4923,4 +4924,2758 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9347</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5819</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5407</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2466</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1922</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0739</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8454</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6409</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5855</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3375</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7678,4 +7679,2682 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.7882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2967</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>148.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4774</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1993</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1309</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9721</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9712</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8902</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6927</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5937</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5254</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5059</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3275</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10357,4 +10358,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10366,7 +10367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10377,17 +10378,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10397,14 +10418,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.12</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -10413,14 +10456,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.91</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.3810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10429,14 +10494,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.4</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -10445,13 +10532,3989 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6489</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.1864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.0293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>174.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0235</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9849</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9615</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8288</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7618</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>46.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6934</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6832</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1770</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>39.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1769</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1460</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1330</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0524</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0424</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0126</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9779</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9755</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8476</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8289</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8155</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7726</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6563</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4996</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3882</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>36.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14413,7 +14414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14424,17 +14425,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14444,14 +14465,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n">
-        <v>94.14</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14460,14 +14503,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>69</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.12</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.7837</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -14476,14 +14541,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.91</v>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>171.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14492,14 +14579,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.4</v>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.0970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -14508,13 +14617,5219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>129.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3855</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.1097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.7206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0217</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.0217</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.0217</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.9664</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.8555</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.8185</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.5931</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.3240</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6835</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.6835</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>140.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.5414</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.2154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>43.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5859</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3234</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2757</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2710</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1329</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9370</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8343</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>35.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7180</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>35.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5936</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5152</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4566</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4440</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4298</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4090</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>138</v>
+      </c>
+      <c r="D2" t="n">
+        <v>122.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>73</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>36.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19712,7 +19713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19723,17 +19724,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19743,14 +19764,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>138</v>
-      </c>
-      <c r="D2" t="n">
-        <v>122.05</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19759,14 +19802,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>105</v>
-      </c>
-      <c r="D3" t="n">
-        <v>94.14</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -19775,14 +19840,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65.12</v>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>184.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -19791,14 +19878,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.91</v>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -19807,14 +19916,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>42</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.4</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>135.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.6451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -19823,13 +19954,4439 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.8199</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0082</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8104</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0380</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6087</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4930</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4060</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0744</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0203</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0100</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9815</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9714</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9517</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9329</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8529</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8374</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8329</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8025</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5273</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5186</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011870</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013622</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>118</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>138</v>
+      </c>
+      <c r="D3" t="n">
+        <v>122.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>105</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>73</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>36.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>89.61</v>
+        <v>60.54</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>122.05</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D4" t="n">
-        <v>94.14</v>
+        <v>122.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>65.12</v>
+        <v>94.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>43.91</v>
+        <v>65.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>31.4</v>
+        <v>43.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>73</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>36.12</v>
       </c>
     </row>
@@ -600,6 +617,3664 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>128.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0755</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8321</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1319</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0183</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9643</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9271</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7728</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7720</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7609</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7447</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6820</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6669</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4576</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3175</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011870</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015198</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015199</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票D</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5139,7 +8814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10437,7 +14112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14483,7 +18158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17161,7 +20836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19915,7 +23590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21567,7 +25242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600563-法拉电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>60.54</v>
+        <v>48.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>89.61</v>
+        <v>60.54</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D4" t="n">
-        <v>122.05</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D5" t="n">
-        <v>94.14</v>
+        <v>122.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n">
-        <v>65.12</v>
+        <v>94.14</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>43.91</v>
+        <v>65.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D8" t="n">
-        <v>31.4</v>
+        <v>43.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2858 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>73</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>36.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0643</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4818</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>52.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008726</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安添裕债券A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000072</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008727</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安添裕债券C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3462,3617 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>126.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3943</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016464</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴证全球合瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1824</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0140</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8654</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8505</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8382</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6638</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6208</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016465</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴证全球合瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5387</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016370</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>016371</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015198</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015199</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票D</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4274,7 +10730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8814,7 +15270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14112,7 +20568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18158,7 +24614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20836,7 +27292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23590,7 +30046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25240,2832 +31696,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泓德远见回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>107.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.8776</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008545</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德丰润三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>126.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.3342</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005395</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德臻远回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>120.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.3899</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001790</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>81.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.0643</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001410</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银新能源产业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>125.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.2069</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501071</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泓德三年运作丰泽封闭</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.7113</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010126</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>平安价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>96.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1272</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002450</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安睿享文娱灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5778</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4818</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006100</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>平安优势产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3888</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>15.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3795</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515150</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22.34</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3530</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006101</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>平安优势产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3456</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003986</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2996</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009437</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2721</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2534</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>610002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>信达澳银精华配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>77.15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2380</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2225</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>515110</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>易方达中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>98.83</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1885</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002451</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>平安睿享文娱灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1831</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010127</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>平安价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>96.07</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1650</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1629</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1474</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007074</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>52.18</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007893</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>平安估值精选混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1361</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001672</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国寿安保智慧生活股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1358</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009867</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0991</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008726</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>平安添裕债券A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0975</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009470</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>东方欣利混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0911</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000209</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>信诚新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004756</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国寿安保稳吉混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>28.72</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0645</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002305</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0527</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>700003</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>平安策略先锋混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009671</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>平安恒泽混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>21.62</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0437</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004390</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>平安转型创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>87.48</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0401</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003626</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007894</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>平安估值精选混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0389</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005041</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>人保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001664</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>平安鑫安混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007049</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>平安鑫安混合E</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005090</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>000072</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>华安稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>21.11</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009868</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>006433</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>68.31</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004391</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>平安转型创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>87.48</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>005091</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>009672</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>平安恒泽混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>21.62</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>009471</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>东方欣利混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>004757</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>国寿安保稳吉混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>28.72</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>011323</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>519183</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>万家双引擎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>007794</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>007499</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>88.33</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>001665</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>平安鑫安混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>005042</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>人保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>008727</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>平安添裕债券C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>